--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>953019.5510381099</v>
+        <v>951696.9872261736</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>28.3113850576201</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -673,13 +673,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>300.9575343261988</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -876,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>32.92585753158399</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>302.3398778399651</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>180.5338407798786</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -913,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>193.5927947728079</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>80.12433358548559</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>305.0293188319553</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>98.94574135710867</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1305,7 +1305,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>192.9312320650013</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.24458363092515</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5761659788956</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1815,7 +1815,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2007,19 +2007,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>15.50887371048497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>13.93720075899003</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>23.10082149448768</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.01732390352688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447167</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>69.16447150754379</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>112.8724405582094</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>110.8497369018487</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2572,10 +2572,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563819</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>53.83628814473719</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>17.53678981570108</v>
       </c>
       <c r="U28" t="n">
         <v>279.9659758737533</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U29" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2961,7 +2961,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>95.42152107504459</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.9517565468213</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U32" t="n">
-        <v>247.0106858669749</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.6888417685117</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>112.9442781751875</v>
       </c>
       <c r="H34" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>328.550718687297</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U37" t="n">
         <v>279.9659758737533</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>101.0709646272703</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>71.42047856476404</v>
       </c>
       <c r="U38" t="n">
-        <v>27.77593058653722</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>93.35988926886061</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.59089482039479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>252.6050138921955</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313594</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>98.15157401752427</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.05424424700634</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
         <v>279.9659758737533</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313594</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>249.1130296057163</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>105.3781955272037</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.2723504930938</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2082.073505856017</v>
+        <v>1724.585946596976</v>
       </c>
       <c r="C2" t="n">
-        <v>1671.948915169287</v>
+        <v>1314.461355910246</v>
       </c>
       <c r="D2" t="n">
-        <v>1267.484985262347</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>853.1447697792441</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>432.1143577329317</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,28 +4406,28 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959273</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962253</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1294.242908558238</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="C4" t="n">
-        <v>1294.242908558238</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="D4" t="n">
-        <v>1294.242908558238</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E4" t="n">
-        <v>1156.690402913334</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1294.242908558238</v>
+        <v>829.1668857020934</v>
       </c>
       <c r="W4" t="n">
-        <v>1294.242908558238</v>
+        <v>550.0972212109677</v>
       </c>
       <c r="X4" t="n">
-        <v>1294.242908558238</v>
+        <v>550.0972212109677</v>
       </c>
       <c r="Y4" t="n">
-        <v>1294.242908558238</v>
+        <v>325.3615225997325</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1467.525454856486</v>
       </c>
       <c r="C5" t="n">
-        <v>1776.679689856052</v>
+        <v>1461.441268210161</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>307.7185867198193</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>307.7185867198193</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>791.9777988942844</v>
+        <v>2007.320611191733</v>
       </c>
       <c r="C8" t="n">
-        <v>381.8532082075545</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4807,19 +4807,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1202.198978558774</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1059.950756782464</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
         <v>307.7185867198193</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.950756782464</v>
+        <v>1376.283949861562</v>
       </c>
       <c r="Y10" t="n">
-        <v>1059.950756782464</v>
+        <v>1151.548251250326</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209.5897435862967</v>
+        <v>134.9048932774159</v>
       </c>
       <c r="C13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>209.5897435862967</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.5897435862967</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D14" t="n">
-        <v>1692.113136769081</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E14" t="n">
-        <v>1277.772921285978</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F14" t="n">
-        <v>856.7425092396657</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>1350.978107866783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1038.748432315159</v>
+        <v>541.5939311562606</v>
       </c>
       <c r="C19" t="n">
-        <v>867.6550598768758</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5703,22 +5703,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1283.743156398938</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.484130926395</v>
+        <v>1283.743156398938</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.484130926395</v>
+        <v>1004.673491907813</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.484130926395</v>
+        <v>766.3296297674959</v>
       </c>
       <c r="Y19" t="n">
-        <v>1038.748432315159</v>
+        <v>541.5939311562606</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2459.725286714852</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C20" t="n">
-        <v>2049.600696028122</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D20" t="n">
-        <v>1645.136766121183</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E20" t="n">
-        <v>1230.796550638079</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F20" t="n">
-        <v>809.7661385917668</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G20" t="n">
-        <v>401.0378544845989</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5761,10 +5761,10 @@
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
         <v>3771.310534127132</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V20" t="n">
-        <v>4055.286838127131</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W20" t="n">
-        <v>3671.526537262299</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.883139431251</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y20" t="n">
-        <v>2869.946466379341</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3300.036378984746</v>
+        <v>901.6003762066769</v>
       </c>
       <c r="C22" t="n">
-        <v>3300.036378984746</v>
+        <v>730.5070037683934</v>
       </c>
       <c r="D22" t="n">
-        <v>3300.036378984746</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1327.643944741038</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1327.643944741038</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>1327.643944741038</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>1327.643944741038</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>1089.300082600721</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.036378984746</v>
+        <v>1089.300082600721</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E23" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,40 +6001,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C24" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D24" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E24" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F24" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G24" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H24" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>2830.780385847137</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M24" t="n">
-        <v>3696.741976463448</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N24" t="n">
-        <v>4593.992910081894</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>4870.998205338185</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>4870.998205338185</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>4870.998205338185</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S24" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T24" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U24" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V24" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W24" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X24" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y24" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3696.308623293226</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="C25" t="n">
-        <v>3696.308623293226</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="D25" t="n">
-        <v>3696.308623293226</v>
+        <v>372.3433454588578</v>
       </c>
       <c r="E25" t="n">
-        <v>3696.308623293226</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="F25" t="n">
-        <v>3696.308623293226</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G25" t="n">
-        <v>3529.135826766616</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H25" t="n">
-        <v>3380.218257642933</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K25" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>4604.174913274182</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.957714591686</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U25" t="n">
-        <v>4082.163799567692</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V25" t="n">
-        <v>3808.278054507214</v>
+        <v>721.276112482856</v>
       </c>
       <c r="W25" t="n">
-        <v>3696.308623293226</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="X25" t="n">
-        <v>3696.308623293226</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="Y25" t="n">
-        <v>3696.308623293226</v>
+        <v>442.2064479917303</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1905.639399406077</v>
       </c>
       <c r="D26" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7949994695443</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964485</v>
       </c>
       <c r="H26" t="n">
         <v>177.1027713887331</v>
@@ -6226,10 +6226,10 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6305,22 +6305,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676373</v>
+        <v>979.5875245199682</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P27" t="n">
         <v>2137.637783597812</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>578.1414556464653</v>
+        <v>910.1456432164293</v>
       </c>
       <c r="C28" t="n">
-        <v>578.1414556464653</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="D28" t="n">
-        <v>578.1414556464653</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="E28" t="n">
         <v>578.1414556464653</v>
@@ -6384,16 +6384,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K28" t="n">
         <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
         <v>1145.132879486175</v>
@@ -6411,25 +6411,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S28" t="n">
-        <v>1566.048603695945</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T28" t="n">
-        <v>1566.048603695945</v>
+        <v>1417.675256851658</v>
       </c>
       <c r="U28" t="n">
-        <v>1283.254688671952</v>
+        <v>1134.881341827665</v>
       </c>
       <c r="V28" t="n">
-        <v>1283.254688671952</v>
+        <v>1134.881341827665</v>
       </c>
       <c r="W28" t="n">
-        <v>1004.185024180826</v>
+        <v>1134.881341827665</v>
       </c>
       <c r="X28" t="n">
-        <v>765.8411620405096</v>
+        <v>1134.881341827665</v>
       </c>
       <c r="Y28" t="n">
-        <v>765.8411620405096</v>
+        <v>910.1456432164293</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6478,37 +6478,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V29" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>374.4252593630554</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>374.4252593630554</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>1240.386849979366</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.9187963538177</v>
+        <v>685.3041711770951</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8254239155342</v>
+        <v>514.2107987388116</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384442</v>
+        <v>354.7161540617216</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676371</v>
+        <v>193.8053389300411</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
         <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
         <v>1145.132879486175</v>
@@ -6651,22 +6651,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V31" t="n">
-        <v>1428.326732961952</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W31" t="n">
-        <v>1149.257068470826</v>
+        <v>910.0398697883304</v>
       </c>
       <c r="X31" t="n">
-        <v>910.9132063305099</v>
+        <v>910.0398697883304</v>
       </c>
       <c r="Y31" t="n">
-        <v>776.6185027478621</v>
+        <v>685.3041711770951</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J32" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6712,40 +6712,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T32" t="n">
-        <v>4739.658996968401</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U32" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V32" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W32" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X32" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C33" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D33" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E33" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F33" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G33" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H33" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J33" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="K33" t="n">
-        <v>3301.23474150293</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L33" t="n">
-        <v>3930.546328869579</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>3930.546328869579</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>3930.546328869579</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>3930.546328869579</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>4509.574353831242</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R33" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S33" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T33" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U33" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V33" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W33" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X33" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y33" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1153.659321845863</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.55948167565</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="D34" t="n">
-        <v>853.0648369985595</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="E34" t="n">
-        <v>692.1540218668789</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K34" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
         <v>1145.132879486175</v>
@@ -6885,25 +6885,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S34" t="n">
-        <v>1620.428692731033</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T34" t="n">
-        <v>1620.428692731033</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U34" t="n">
-        <v>1620.428692731033</v>
+        <v>913.3780722519373</v>
       </c>
       <c r="V34" t="n">
-        <v>1620.428692731033</v>
+        <v>639.4923271914593</v>
       </c>
       <c r="W34" t="n">
-        <v>1341.359028239908</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.359028239908</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="Y34" t="n">
-        <v>1341.359028239908</v>
+        <v>360.4226627003336</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C35" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D35" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F35" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G35" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,40 +6949,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U35" t="n">
-        <v>4490.153253668426</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V35" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X35" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J36" t="n">
-        <v>298.803175282419</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K36" t="n">
-        <v>298.803175282419</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>374.4252593630554</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.386849979366</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>2137.637783597812</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q36" t="n">
         <v>2137.637783597812</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3427.1165065542</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="C37" t="n">
-        <v>3427.1165065542</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="D37" t="n">
-        <v>3427.1165065542</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>4364.957714591686</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U37" t="n">
-        <v>4082.163799567692</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V37" t="n">
-        <v>3808.278054507214</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W37" t="n">
-        <v>3529.208390016089</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X37" t="n">
-        <v>3427.1165065542</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y37" t="n">
-        <v>3427.1165065542</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547877</v>
@@ -7192,7 +7192,7 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344925</v>
@@ -7204,22 +7204,22 @@
         <v>4739.658996968402</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U38" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7332,16 +7332,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7359,25 +7359,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T40" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="U40" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="W40" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="X40" t="n">
-        <v>1463.868615882114</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="Y40" t="n">
-        <v>1371.352560507977</v>
+        <v>1277.955772567328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1236.142604233888</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>815.112192187575</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>406.5568918143015</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
         <v>925.7208439477954</v>
@@ -7450,13 +7450,13 @@
         <v>3911.325541505086</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M42" t="n">
-        <v>1433.835910378867</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.835910378867</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O42" t="n">
-        <v>1433.835910378867</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>262.0510899961724</v>
+        <v>477.748330911892</v>
       </c>
       <c r="C43" t="n">
-        <v>262.0510899961724</v>
+        <v>477.748330911892</v>
       </c>
       <c r="D43" t="n">
-        <v>262.0510899961724</v>
+        <v>477.748330911892</v>
       </c>
       <c r="E43" t="n">
-        <v>262.0510899961724</v>
+        <v>477.748330911892</v>
       </c>
       <c r="F43" t="n">
-        <v>97.41996410676373</v>
+        <v>477.748330911892</v>
       </c>
       <c r="G43" t="n">
-        <v>97.41996410676373</v>
+        <v>310.5755343852826</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7593,28 +7593,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>1659.733443429494</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>1474.693936656888</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T43" t="n">
-        <v>1474.693936656888</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="U43" t="n">
-        <v>1191.900021632894</v>
+        <v>995.1618575433342</v>
       </c>
       <c r="V43" t="n">
-        <v>1191.900021632894</v>
+        <v>995.1618575433342</v>
       </c>
       <c r="W43" t="n">
-        <v>912.8303571417687</v>
+        <v>716.0921930522086</v>
       </c>
       <c r="X43" t="n">
-        <v>674.4864950014521</v>
+        <v>477.748330911892</v>
       </c>
       <c r="Y43" t="n">
-        <v>449.7507963902168</v>
+        <v>477.748330911892</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2465.07134031066</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D44" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E44" t="n">
-        <v>1236.142604233888</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F44" t="n">
-        <v>815.112192187575</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G44" t="n">
-        <v>406.5568918143015</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732498</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477951</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7687,13 +7687,13 @@
         <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2875.29251997515</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>769.2575309382119</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>878.962998472422</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.652854113933</v>
+        <v>203.8625858514139</v>
       </c>
       <c r="C46" t="n">
-        <v>1012.55948167565</v>
+        <v>203.8625858514139</v>
       </c>
       <c r="D46" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E46" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F46" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
         <v>1145.132879486175</v>
@@ -7833,25 +7833,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="U46" t="n">
-        <v>1702.21247802243</v>
+        <v>995.1618575433342</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.21247802243</v>
+        <v>721.2761124828562</v>
       </c>
       <c r="W46" t="n">
-        <v>1423.142813531304</v>
+        <v>442.2064479917306</v>
       </c>
       <c r="X46" t="n">
-        <v>1423.142813531304</v>
+        <v>203.8625858514139</v>
       </c>
       <c r="Y46" t="n">
-        <v>1371.352560507977</v>
+        <v>203.8625858514139</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>391.198134128384</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9933802602897</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,7 +8227,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8236,10 +8236,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>531.0094776201749</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>558.7215717793172</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,16 +8777,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>70.76403821083073</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>897.8036858523743</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8935,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9014,16 +9014,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9245,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421732</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654516</v>
+        <v>36.2193952065451</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978721</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>426.0659948221394</v>
       </c>
       <c r="O24" t="n">
-        <v>315.7539583063243</v>
+        <v>35.95062976461617</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421732</v>
+        <v>41.02972279421729</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654516</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>619.2185506014854</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654931</v>
       </c>
       <c r="O27" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461617</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.9962681786159</v>
+        <v>44.99626817861587</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588059</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>320.8330513359261</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721352</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978721</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654931</v>
       </c>
       <c r="O30" t="n">
-        <v>35.95062976461623</v>
+        <v>35.95062976461617</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856359</v>
+        <v>42.71231595856356</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>671.8876652738668</v>
+        <v>671.8876652738674</v>
       </c>
       <c r="M33" t="n">
-        <v>34.34760704978727</v>
+        <v>34.34760704978721</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654937</v>
+        <v>29.36224035654931</v>
       </c>
       <c r="O33" t="n">
-        <v>35.95062976461623</v>
+        <v>35.95062976461617</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588059</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421732</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>112.6053387223394</v>
+        <v>36.2193952065451</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978721</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654931</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461623</v>
+        <v>468.201514806024</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588059</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M39" t="n">
-        <v>34.34760704978729</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N39" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461625</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P39" t="n">
-        <v>569.6466356266726</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158883</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654507</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461625</v>
+        <v>432.654384230206</v>
       </c>
       <c r="P42" t="n">
-        <v>382.5989170622669</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158877</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654517</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
-        <v>145.1612106196965</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461625</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>128.1378550829755</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>170.5352159497217</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.66401796922139</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>42.06483528720048</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.10615505383078</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142.3908245198341</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>266.0329652203471</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>214.0524301385772</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.471017721596</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="H23" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>88.73522672277528</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.4292309443656</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>226.7002559248241</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>129.3528235601434</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>219.28823687997</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U29" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>67.56329355547005</v>
       </c>
       <c r="G31" t="n">
         <v>165.5010685613433</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.53658507830161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U32" t="n">
-        <v>7.465500644385625</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>29.69359694538898</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>52.55679038615574</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>17.78846042958708</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25320,7 +25320,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>134.8894588916431</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>147.8142767156749</v>
       </c>
       <c r="U38" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>92.46282006124333</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9659758737533</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.8974468047281</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>147.8142767156746</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>226.7002559248237</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25797,16 +25797,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>49.27681941492233</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.91170319147645</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>226.7002559248237</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>147.8142767156745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>52.52150270311537</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.2159911320291</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754555.4101722316</v>
+        <v>754555.4101722315</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754555.4101722315</v>
+        <v>754555.4101722314</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754555.4101722314</v>
+        <v>754555.4101722315</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754555.4101722316</v>
+        <v>754555.4101722314</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775618.793890274</v>
+        <v>775618.7938902741</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775618.7938902742</v>
+        <v>775618.7938902741</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775618.7938902741</v>
+        <v>775618.7938902742</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775618.7938902741</v>
+        <v>775618.7938902745</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775618.7938902744</v>
+        <v>775618.7938902741</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775618.7938902742</v>
+        <v>775618.7938902744</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775618.7938902742</v>
+        <v>775618.7938902744</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778965</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778966</v>
       </c>
       <c r="D2" t="n">
         <v>390917.7432778967</v>
       </c>
       <c r="E2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="F2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="G2" t="n">
+        <v>347578.4010421126</v>
+      </c>
+      <c r="H2" t="n">
         <v>347578.4010421127</v>
       </c>
-      <c r="H2" t="n">
-        <v>347578.4010421126</v>
-      </c>
       <c r="I2" t="n">
-        <v>359077.060213707</v>
+        <v>359077.0602137067</v>
       </c>
       <c r="J2" t="n">
-        <v>359077.060213707</v>
+        <v>359077.0602137069</v>
       </c>
       <c r="K2" t="n">
         <v>359077.060213707</v>
@@ -26346,16 +26346,16 @@
         <v>359077.0602137069</v>
       </c>
       <c r="M2" t="n">
+        <v>359077.0602137069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>359077.0602137068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>359077.0602137069</v>
+      </c>
+      <c r="P2" t="n">
         <v>359077.060213707</v>
-      </c>
-      <c r="N2" t="n">
-        <v>359077.0602137069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>359077.0602137072</v>
-      </c>
-      <c r="P2" t="n">
-        <v>359077.0602137069</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588474</v>
+        <v>45948.62261588488</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213059.546279591</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
         <v>213059.5462795911</v>
@@ -26441,25 +26441,25 @@
         <v>88152.90891079398</v>
       </c>
       <c r="J4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="K4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="N4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="O4" t="n">
         <v>88152.90891079398</v>
       </c>
       <c r="P4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
     </row>
     <row r="5">
@@ -26490,19 +26490,19 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="M5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868564</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62466.37797330611</v>
+        <v>-62466.37797330603</v>
       </c>
       <c r="C6" t="n">
-        <v>112489.1319198081</v>
+        <v>112489.131919808</v>
       </c>
       <c r="D6" t="n">
         <v>112489.131919808</v>
       </c>
       <c r="E6" t="n">
-        <v>-4518.174873864278</v>
+        <v>-4698.755466513509</v>
       </c>
       <c r="F6" t="n">
-        <v>187611.5880255788</v>
+        <v>187431.0074329299</v>
       </c>
       <c r="G6" t="n">
-        <v>187611.5880255788</v>
+        <v>187431.0074329296</v>
       </c>
       <c r="H6" t="n">
-        <v>187611.5880255786</v>
+        <v>187431.0074329297</v>
       </c>
       <c r="I6" t="n">
-        <v>150007.6888983427</v>
+        <v>149875.0193855748</v>
       </c>
       <c r="J6" t="n">
-        <v>59361.51070833241</v>
+        <v>59228.84119556487</v>
       </c>
       <c r="K6" t="n">
-        <v>195956.3115142274</v>
+        <v>195823.6420014599</v>
       </c>
       <c r="L6" t="n">
-        <v>195956.3115142273</v>
+        <v>195823.6420014598</v>
       </c>
       <c r="M6" t="n">
-        <v>35597.86101354467</v>
+        <v>35465.19150077714</v>
       </c>
       <c r="N6" t="n">
-        <v>195956.3115142273</v>
+        <v>195823.6420014598</v>
       </c>
       <c r="O6" t="n">
-        <v>195956.3115142276</v>
+        <v>195823.6420014599</v>
       </c>
       <c r="P6" t="n">
-        <v>195956.3115142273</v>
+        <v>195823.6420014599</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26810,19 +26810,19 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="M4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="N4" t="n">
         <v>1217.749551334547</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812873</v>
+        <v>42.59940676812884</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>372.1079055502499</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>103.6834669398974</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27545,16 +27545,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>23.12472639190884</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>238.2210300782893</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>103.6834669398975</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>219.8854498279914</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>82.68617307340648</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.994634282359</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.38997177591477</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27912,7 +27912,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679198</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>43.02919145391218</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552917</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096877</v>
+        <v>1.753853968096881</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947872</v>
+        <v>6.602265846947889</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275966</v>
+        <v>14.5349604027597</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394515</v>
+        <v>21.7841378439452</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064915</v>
+        <v>27.02514928064921</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351431</v>
+        <v>30.07068576351438</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710203</v>
+        <v>30.55726089710211</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323035</v>
+        <v>28.85435496323042</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202159</v>
+        <v>24.62652439202166</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163522</v>
+        <v>18.49349422163527</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949135</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753703</v>
+        <v>3.902448167753713</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707879</v>
+        <v>0.7496639321707897</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442333</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106935</v>
+        <v>0.09162891267106958</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284857</v>
+        <v>0.8849423934284879</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017081</v>
+        <v>3.154767388017089</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436426</v>
+        <v>8.656922841436447</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039807</v>
+        <v>14.79605999039811</v>
       </c>
       <c r="L24" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430395</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863021</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720062</v>
+        <v>23.83115303720068</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538377</v>
+        <v>21.80084923538382</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821503</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622285</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524817</v>
+        <v>5.689030209524831</v>
       </c>
       <c r="S24" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745524</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557574</v>
+        <v>0.3693288190557584</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886144</v>
+        <v>0.006028217938886159</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875672</v>
+        <v>0.07681860236875691</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513103</v>
+        <v>0.6829872101513119</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507703</v>
+        <v>2.310144878507709</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4310751874711</v>
+        <v>5.431075187471113</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388278</v>
+        <v>8.924924893388301</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944228</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676796</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521169</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935848</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035809</v>
+        <v>9.290860781035832</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987438</v>
+        <v>6.432510421987454</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871551</v>
+        <v>3.45404370287156</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937786</v>
+        <v>0.3282249373937794</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750371</v>
+        <v>0.004190105583750382</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552917</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096877</v>
+        <v>1.753853968096881</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947872</v>
+        <v>6.602265846947889</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275966</v>
+        <v>14.5349604027597</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394515</v>
+        <v>21.7841378439452</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064915</v>
+        <v>27.02514928064921</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351431</v>
+        <v>30.07068576351438</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710203</v>
+        <v>30.55726089710211</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323035</v>
+        <v>28.85435496323042</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202159</v>
+        <v>24.62652439202166</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163522</v>
+        <v>18.49349422163527</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949135</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753703</v>
+        <v>3.902448167753713</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707879</v>
+        <v>0.7496639321707897</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442333</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106935</v>
+        <v>0.09162891267106958</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284857</v>
+        <v>0.8849423934284879</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017081</v>
+        <v>3.154767388017089</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436426</v>
+        <v>8.656922841436447</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039807</v>
+        <v>14.79605999039811</v>
       </c>
       <c r="L27" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430395</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863021</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720062</v>
+        <v>23.83115303720068</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538377</v>
+        <v>21.80084923538382</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821503</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622285</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524817</v>
+        <v>5.689030209524831</v>
       </c>
       <c r="S27" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745524</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557574</v>
+        <v>0.3693288190557584</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886144</v>
+        <v>0.006028217938886159</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875672</v>
+        <v>0.07681860236875691</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513103</v>
+        <v>0.6829872101513119</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507703</v>
+        <v>2.310144878507709</v>
       </c>
       <c r="J28" t="n">
-        <v>5.4310751874711</v>
+        <v>5.431075187471113</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388278</v>
+        <v>8.924924893388301</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944228</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676796</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521169</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935848</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035809</v>
+        <v>9.290860781035832</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987438</v>
+        <v>6.432510421987454</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871551</v>
+        <v>3.45404370287156</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937786</v>
+        <v>0.3282249373937794</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750371</v>
+        <v>0.004190105583750382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552917</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096877</v>
+        <v>1.753853968096881</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947872</v>
+        <v>6.602265846947889</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275966</v>
+        <v>14.5349604027597</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394515</v>
+        <v>21.7841378439452</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064915</v>
+        <v>27.02514928064921</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351431</v>
+        <v>30.07068576351438</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710203</v>
+        <v>30.55726089710211</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323035</v>
+        <v>28.85435496323042</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202159</v>
+        <v>24.62652439202166</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163522</v>
+        <v>18.49349422163527</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949135</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753703</v>
+        <v>3.902448167753713</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707879</v>
+        <v>0.7496639321707897</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442333</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106935</v>
+        <v>0.09162891267106958</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284857</v>
+        <v>0.8849423934284879</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017081</v>
+        <v>3.154767388017089</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436426</v>
+        <v>8.656922841436447</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039807</v>
+        <v>14.79605999039811</v>
       </c>
       <c r="L30" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430395</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863021</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720062</v>
+        <v>23.83115303720068</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538377</v>
+        <v>21.80084923538382</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821503</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622285</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524817</v>
+        <v>5.689030209524831</v>
       </c>
       <c r="S30" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745524</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557574</v>
+        <v>0.3693288190557584</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886144</v>
+        <v>0.006028217938886159</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875672</v>
+        <v>0.07681860236875691</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513103</v>
+        <v>0.6829872101513119</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507703</v>
+        <v>2.310144878507709</v>
       </c>
       <c r="J31" t="n">
-        <v>5.4310751874711</v>
+        <v>5.431075187471113</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388278</v>
+        <v>8.924924893388301</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944228</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676796</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521169</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935848</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035809</v>
+        <v>9.290860781035832</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987438</v>
+        <v>6.432510421987454</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871551</v>
+        <v>3.45404370287156</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937786</v>
+        <v>0.3282249373937794</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750371</v>
+        <v>0.004190105583750382</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552917</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096877</v>
+        <v>1.753853968096881</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947872</v>
+        <v>6.602265846947889</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275966</v>
+        <v>14.5349604027597</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394515</v>
+        <v>21.7841378439452</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064915</v>
+        <v>27.02514928064921</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351431</v>
+        <v>30.07068576351438</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710203</v>
+        <v>30.55726089710211</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323035</v>
+        <v>28.85435496323042</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202159</v>
+        <v>24.62652439202166</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163522</v>
+        <v>18.49349422163527</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949135</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753703</v>
+        <v>3.902448167753713</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707879</v>
+        <v>0.7496639321707897</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442333</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106935</v>
+        <v>0.09162891267106958</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284857</v>
+        <v>0.8849423934284879</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017081</v>
+        <v>3.154767388017089</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436426</v>
+        <v>8.656922841436447</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039807</v>
+        <v>14.79605999039811</v>
       </c>
       <c r="L33" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430395</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863021</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720062</v>
+        <v>23.83115303720068</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538377</v>
+        <v>21.80084923538382</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821503</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622285</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524817</v>
+        <v>5.689030209524831</v>
       </c>
       <c r="S33" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745524</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557574</v>
+        <v>0.3693288190557584</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886144</v>
+        <v>0.006028217938886159</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875672</v>
+        <v>0.07681860236875691</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513103</v>
+        <v>0.6829872101513119</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507703</v>
+        <v>2.310144878507709</v>
       </c>
       <c r="J34" t="n">
-        <v>5.4310751874711</v>
+        <v>5.431075187471113</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388278</v>
+        <v>8.924924893388301</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944228</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676796</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521169</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935848</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035809</v>
+        <v>9.290860781035832</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987438</v>
+        <v>6.432510421987454</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871551</v>
+        <v>3.45404370287156</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937786</v>
+        <v>0.3282249373937794</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750371</v>
+        <v>0.004190105583750382</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552917</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096877</v>
+        <v>1.753853968096881</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947872</v>
+        <v>6.602265846947889</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275966</v>
+        <v>14.5349604027597</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394515</v>
+        <v>21.7841378439452</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064915</v>
+        <v>27.02514928064921</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351431</v>
+        <v>30.07068576351438</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710203</v>
+        <v>30.55726089710211</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323035</v>
+        <v>28.85435496323042</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202159</v>
+        <v>24.62652439202166</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163522</v>
+        <v>18.49349422163527</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949135</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753703</v>
+        <v>3.902448167753713</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707879</v>
+        <v>0.7496639321707897</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442333</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106935</v>
+        <v>0.09162891267106958</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284857</v>
+        <v>0.8849423934284879</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017081</v>
+        <v>3.154767388017089</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436426</v>
+        <v>8.656922841436447</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039807</v>
+        <v>14.79605999039811</v>
       </c>
       <c r="L36" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430395</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863021</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720062</v>
+        <v>23.83115303720068</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538377</v>
+        <v>21.80084923538382</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821503</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622285</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524817</v>
+        <v>5.689030209524831</v>
       </c>
       <c r="S36" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745524</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557574</v>
+        <v>0.3693288190557584</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886144</v>
+        <v>0.006028217938886159</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875672</v>
+        <v>0.07681860236875691</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513103</v>
+        <v>0.6829872101513119</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507703</v>
+        <v>2.310144878507709</v>
       </c>
       <c r="J37" t="n">
-        <v>5.4310751874711</v>
+        <v>5.431075187471113</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388278</v>
+        <v>8.924924893388301</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944228</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676796</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521169</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935848</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035809</v>
+        <v>9.290860781035832</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987438</v>
+        <v>6.432510421987454</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871551</v>
+        <v>3.45404370287156</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937786</v>
+        <v>0.3282249373937794</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750371</v>
+        <v>0.004190105583750382</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N39" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>338.004740734634</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,7 +34947,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>474.8949538093258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>13.19975447241331</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>844.6102924586244</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35734,16 +35734,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
         <v>814.2308786844779</v>
@@ -36372,16 +36372,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682955</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417081</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
         <v>814.2308786844779</v>
@@ -36609,16 +36609,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682955</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>584.8709435516981</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
         <v>814.2308786844779</v>
@@ -36846,16 +36846,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682955</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>279.8033285417088</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
         <v>814.2308786844779</v>
@@ -37083,16 +37083,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682955</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>635.6682700673216</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
         <v>814.2308786844779</v>
@@ -37320,16 +37320,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682955</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>76.38594351579428</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>532.8841041320838</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q39" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.2879618853399</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
         <v>475.2064198543362</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P42" t="n">
-        <v>345.8363855676781</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853395</v>
       </c>
       <c r="K44" t="n">
         <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
-        <v>110.8136035699092</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
